--- a/DataCSV.xlsx
+++ b/DataCSV.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81cfea30afa7d89c/Documents/AI4100/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81cfea30afa7d89c/Documents/AI4100/AI4100Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9B9A1AE-AC54-44F9-942F-7B5C8BFA6E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C9B9A1AE-AC54-44F9-942F-7B5C8BFA6E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{543944B1-BBB5-4274-B384-B89BB6E6F25F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A775479-9C66-46A2-B270-2DFC8BA092CD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{9A775479-9C66-46A2-B270-2DFC8BA092CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Alcohol</t>
   </si>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09257845-89DA-4F8F-B376-4F7D5DF4D757}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -468,6 +468,46 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -475,6 +515,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003F768162284A2844BBA9A6261047B685" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8040dbbda98f54566c42cc4093221dd7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6e39ba0-ed7a-4190-aa04-095229483c56" xmlns:ns4="b1ea5701-43e2-4efd-9c12-361cd842dfca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5bf018e2e311dc69c2a8ab75b7e6211" ns3:_="" ns4:_="">
     <xsd:import namespace="f6e39ba0-ed7a-4190-aa04-095229483c56"/>
@@ -693,15 +742,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -711,6 +751,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97D5ABAE-28A7-4A92-85A1-FB448DCA77D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E923908B-EBD0-4400-8724-6820C8203AF3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -729,14 +777,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97D5ABAE-28A7-4A92-85A1-FB448DCA77D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11685878-3A9C-4B55-AA53-B257387B529B}">
   <ds:schemaRefs>
